--- a/output/CodeSystem-procedimientos-codesystem.xlsx
+++ b/output/CodeSystem-procedimientos-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T16:20:05-03:00</t>
+    <t>2025-07-12T17:02:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-procedimientos-codesystem.xlsx
+++ b/output/CodeSystem-procedimientos-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T17:02:17-03:00</t>
+    <t>2025-07-14T12:58:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-procedimientos-codesystem.xlsx
+++ b/output/CodeSystem-procedimientos-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T12:58:17-03:00</t>
+    <t>2025-07-14T16:52:57-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
